--- a/data/trans_bre/P3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,26</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,94%</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-26,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 2,13</t>
+          <t>-17,03; 1,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 0,2</t>
+          <t>-18,8; 1,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -0,14</t>
+          <t>-20,43; 0,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 0,44</t>
+          <t>-19,42; 2,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 7,31</t>
+          <t>-11,42; 12,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 0,48</t>
+          <t>-40,42; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 0,19</t>
+          <t>-41,47; 6,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 1,1</t>
+          <t>-44,9; 2,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-44,94; 7,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-30,04; 54,95</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-13,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,39%</t>
+          <t>-13,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-21,02%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-17,56%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 6,04</t>
+          <t>-17,79; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 6,25</t>
+          <t>-19,27; 3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 3,25</t>
+          <t>-24,57; -0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 2,65</t>
+          <t>-27,75; -4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 11,79</t>
+          <t>-24,33; 1,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 11,53</t>
+          <t>-26,33; 9,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 6,22</t>
+          <t>-28,07; 6,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 4,54</t>
+          <t>-34,78; -1,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,52; -8,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-34,78; 2,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>18,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>42,24%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33,76%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-16,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 38,77</t>
+          <t>-15,48; 49,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 39,74</t>
+          <t>-15,38; 52,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 32,44</t>
+          <t>-6,02; 54,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 34,18</t>
+          <t>-10,17; 53,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 79,73</t>
+          <t>-35,07; 9,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 84,78</t>
+          <t>-17,32; 138,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 59,9</t>
+          <t>-17,66; 162,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 71,08</t>
+          <t>-8,0; 202,18</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 196,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 14,26</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-13,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-19,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,96</t>
+          <t>-14,38; 1,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,63</t>
+          <t>-15,8; 1,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,05</t>
+          <t>-17,97; -0,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,64</t>
+          <t>-19,07; -1,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 2,14</t>
+          <t>-15,71; 3,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 1,3</t>
+          <t>-25,96; 4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -2,2</t>
+          <t>-28,21; 3,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -1,7</t>
+          <t>-31,68; -2,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-32,9; -2,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 9,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,42</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,98</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-20,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-23,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-26,5%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-26,23%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-1,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.838304906964516</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-10.74053898904227</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-11.74797199047736</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.36968785555197</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.3925136790172978</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2087246728621585</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2629412518275045</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2850262322911443</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.264579036973856</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.01235937831357042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; 1,86</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,8; 1,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,43; 0,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 2,42</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,42; 12,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,42; 5,81</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-41,47; 6,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 2,74</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-44,94; 7,66</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-30,04; 54,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.03220967661546</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.6709712107576</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.76909982015633</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-20.05675120290576</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-11.96512172311863</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4042348476752324</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4407300934668764</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4572194445766252</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4515002191766857</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3061474882122677</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.864419923177589</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3044601820670559</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2133009209314505</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.502904854982818</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.541716798558</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.05808664810307145</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.002748985279044938</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.004936605440585718</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.03798001668073035</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5152345794137196</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-13,85</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-17,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-11,38</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-11,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-21,02%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-24,68%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-17,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; 5,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-19,27; 3,82</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-24,57; -0,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,75; -4,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-24,33; 1,43</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,33; 9,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-28,07; 6,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-34,78; -1,03</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-37,52; -8,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-34,78; 2,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.901933377963154</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.841394513871101</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-14.0198679712224</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-16.11012163796983</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-10.11963484382875</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1108624301696214</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1103883903161635</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2117130464519319</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2325045944372678</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1569379913495659</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>18,28</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-13,51</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,36%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>20,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>42,24%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>33,76%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-16,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.79474753519414</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.41808133217731</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-24.55714790251967</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-26.94433716725626</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-22.68390272350699</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2632823050084844</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2683364864769542</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3458506898343854</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3642071696957672</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3249204050240398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 49,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,38; 52,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,02; 54,03</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,17; 53,8</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-35,07; 9,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; 138,28</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-17,66; 162,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 202,18</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 196,22</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-39,63; 14,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.078463357741989</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.02525761971452</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.2287964659643888</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-3.217559438658787</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.660740580152291</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.0910679465897678</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1288065890989613</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.00960403462839139</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.05632948472626099</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.05826481399728493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-6,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-10,31</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,96</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-13,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-17,54%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-19,55%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>12.01102753966861</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>15.19371467271875</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>19.94390230611977</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>17.77798910561391</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-13.28516425274903</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1836089913911938</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2419867822225838</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3631292372022382</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3276859890110941</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1658336880965099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; 1,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; 1,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; -0,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,07; -1,27</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-15,71; 3,93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,96; 4,14</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 3,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; -2,03</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-32,9; -2,81</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-28,74; 9,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.48068657033174</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.23286827703679</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.815625303664486</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.58477280644219</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-36.38054121818793</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1732111418828738</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1547232375773471</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.09995001898439201</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1507101497233616</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4048321881127946</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>49.87615803343135</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>53.9338302446973</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>50.72223460340386</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>53.89735697451422</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>11.01071985601063</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.382812265577788</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.62673954729625</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.721948233550455</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.913732996658587</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1690868637008253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.052669685127937</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.011844660955669</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-10.17075984175124</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-10.26107860218398</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-6.560293505897241</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1195020193707688</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1350044390678256</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1906933671217927</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1917546895815769</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1296139650653767</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-14.37992621194158</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-15.94459562611299</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.62791637052988</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-19.07710798002638</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-15.4497261966655</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2595680167691937</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2812121371440251</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3266341622152666</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3276594148801746</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2793565737606128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.908697700194275</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.206716021492961</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.307079884071178</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-1.37226575584838</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.947439079164249</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.04143648513869408</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.0416473665643913</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.05061908195526933</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.0359468269383755</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.08765079656768206</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
